--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -499,12 +499,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14/03/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/03/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="H2" t="n">

--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>16964.0182</v>
+        <v>16958.5202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -508,7 +508,79 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1374085</v>
+        <v>16959</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>90249000-0/0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>400</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16958.5202</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6783408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>96921130-0/0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16958.5202</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>17908197</v>
       </c>
     </row>
   </sheetData>

--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>76513680-6/0</t>
+          <t>96586750-3/0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,29 +492,29 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>16958.5202</v>
+        <v>16956.9559</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16959</v>
+        <v>254354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>90249000-0/0</t>
+          <t>76513680-6/0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,59 +528,23 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>16958.5202</v>
+        <v>16956.9559</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6783408</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>96921130-0/0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CFINHRFLA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1056</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16958.5202</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>17/03/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>17/03/2025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>17908197</v>
+        <v>135656</v>
       </c>
     </row>
   </sheetData>

--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,21 @@
           <t>Monto</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P*Q</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Dif</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>96586750-3/0</t>
+          <t>96921130-0/0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,59 +502,29 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
-        <v>16956.9559</v>
+        <v>16956.615</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>19/03/2025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>254354</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>76513680-6/0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CFINHRFLA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16956.9559</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18/03/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>18/03/2025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>135656</v>
+        <v>695221</v>
+      </c>
+      <c r="I2" t="n">
+        <v>695221</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,37 +493,121 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CFINVSDPR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>9524</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1319.635</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>12568204</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12568204</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>96586750-3/0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>CFINHRFLA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>41</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16956.615</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19/03/2025</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>19/03/2025</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>695221</v>
-      </c>
-      <c r="I2" t="n">
-        <v>695221</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="D3" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16957.8775</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>17110498</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17110498</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>90249000-0/0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>148</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16957.8775</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20/03/2025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2509766</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2509766</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>96921130-0/0</t>
+          <t>76513680-6/0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CFINVSDPR</t>
+          <t>CFINHRFLA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,112 +502,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9524</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.635</v>
+        <v>16960.8644</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/03/2025</t>
+          <t>21/03/2025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12568204</v>
+        <v>33922</v>
       </c>
       <c r="I2" t="n">
-        <v>12568204</v>
+        <v>33922</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>96586750-3/0</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CFINHRFLA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1009</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16957.8775</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>17110498</v>
-      </c>
-      <c r="I3" t="n">
-        <v>17110498</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>90249000-0/0</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CFINHRFLA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>148</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16957.8775</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20/03/2025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2509766</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2509766</v>
-      </c>
-      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>76513680-6/0</t>
+          <t>96921130-0/0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,28 +502,112 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>16960.8644</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/03/2025</t>
+          <t>24/03/2025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>33922</v>
+        <v>135687</v>
       </c>
       <c r="I2" t="n">
-        <v>33922</v>
+        <v>135687</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>90249000-0/0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>58</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16960.8644</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>983730</v>
+      </c>
+      <c r="I3" t="n">
+        <v>983730</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>76513680-6/0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CFINHRFLA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>403</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16960.8644</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6835228</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6835228</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ingresos.xlsx
+++ b/Ingresos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,21 +474,11 @@
           <t>Monto</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P*Q</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Dif</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>96921130-0/0</t>
+          <t>90249000-0/0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,40 +492,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16960.8644</v>
+        <v>16968.9713</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>135687</v>
-      </c>
-      <c r="I2" t="n">
-        <v>135687</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+        <v>6787589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>90249000-0/0</t>
+          <t>96586750-3/0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CFINHRFLA</t>
+          <t>CFINVSDPR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -544,40 +528,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>6300</v>
       </c>
       <c r="E3" t="n">
-        <v>16960.8644</v>
+        <v>1320.662</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>983730</v>
-      </c>
-      <c r="I3" t="n">
-        <v>983730</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+        <v>8320171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>76513680-6/0</t>
+          <t>96489000-5/0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CFINHRFLA</t>
+          <t>CFINGVIIR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -586,29 +564,23 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>403</v>
+        <v>6250</v>
       </c>
       <c r="E4" t="n">
-        <v>16960.8644</v>
+        <v>33996.3382</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/03/2025</t>
+          <t>25/03/2025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6835228</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6835228</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
+        <v>212477114</v>
       </c>
     </row>
   </sheetData>
